--- a/proposiciones_euclides.xlsx
+++ b/proposiciones_euclides.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\Proposicion 16 aplicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC8E089-BD4B-4148-95C9-EB3C0ED94286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC0F268-1DF8-4D7D-B176-007DCCA8E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,54 +41,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Proposición I.1</t>
-  </si>
-  <si>
-    <t>Proposición I.2</t>
-  </si>
-  <si>
-    <t>Proposición I.3</t>
-  </si>
-  <si>
-    <t>Proposición I.4</t>
-  </si>
-  <si>
-    <t>Proposición I.5</t>
-  </si>
-  <si>
-    <t>Proposición I.6</t>
-  </si>
-  <si>
-    <t>Proposición I.7</t>
-  </si>
-  <si>
-    <t>Proposición I.8</t>
-  </si>
-  <si>
-    <t>Proposición I.9</t>
-  </si>
-  <si>
-    <t>Proposición I.10</t>
-  </si>
-  <si>
-    <t>Proposición I.11</t>
-  </si>
-  <si>
-    <t>Proposición I.12</t>
-  </si>
-  <si>
-    <t>Proposición I.13</t>
-  </si>
-  <si>
-    <t>Proposición I.14</t>
-  </si>
-  <si>
-    <t>Proposición I.15</t>
-  </si>
-  <si>
-    <t>Proposición I.16</t>
-  </si>
-  <si>
     <t>Proposición I.17</t>
   </si>
   <si>
@@ -206,18 +158,12 @@
     <t>No se pueden construir dos triángulos distintos con los mismos extremos.TODO: Corregir</t>
   </si>
   <si>
-    <t>Si tres lados de un triángulo son iguales a tres lados de otro, son congruentes.TODO: Corregir</t>
-  </si>
-  <si>
     <t>Bisecar un ángulo rectilíneo dado.TODO: Corregir</t>
   </si>
   <si>
     <t>Levantar una línea perpendicular desde un punto de una recta dada.TODO: Corregir</t>
   </si>
   <si>
-    <t>Trazar una línea recta perpendicular a una recta infinita dada desde un punto exterior.TODO: Corregir</t>
-  </si>
-  <si>
     <t>Si una línea recta incide sobre otra, forma ángulos iguales a dos rectos.TODO: Corregir</t>
   </si>
   <si>
@@ -320,13 +266,67 @@
     <t>Recíproco del teorema de Pitágoras: Si el cuadrado de un lado es igual a la suma de los cuadrados de los otros dos, el triángulo es rectángulo.TODO: Corregir</t>
   </si>
   <si>
-    <t>Para cualquier triángulo, cuando un lado se prolonga, el ángulo externo es mayor que los ángulos internos opuestos.</t>
-  </si>
-  <si>
     <t>Si dos triángulos tienen dos lados del uno iguales a dos lados del otro, y tienen iguales los ángulos comprendidos por las rectas iguales, tendrán también las respectivas bases iguales, y un triángulo será igual al otro, y los ángulos restantes, a saber: los subtendidos por lados iguales, serán también iguales respectivamente.</t>
   </si>
   <si>
     <t>Si dos líneas rectas se cortan una a la otra, entonces los ángulos verticalmente opuestos son iguales entre sí.</t>
+  </si>
+  <si>
+    <t>Si dos triángulos tienen dos lados del uno iguales respectivamente a dos lados del otro y tienen también iguales sus bases respectivas, también tendrán iguales los ángulos comprendidos entre las rectas.</t>
+  </si>
+  <si>
+    <t>Trazar una línea recta perpendicular a una recta infinita dada desde un punto que no está en ella.</t>
+  </si>
+  <si>
+    <t>Proposición I.I</t>
+  </si>
+  <si>
+    <t>Proposición I.II</t>
+  </si>
+  <si>
+    <t>Proposición I.III</t>
+  </si>
+  <si>
+    <t>Proposición I.IV</t>
+  </si>
+  <si>
+    <t>Proposición I.V</t>
+  </si>
+  <si>
+    <t>Proposición I.VI</t>
+  </si>
+  <si>
+    <t>Proposición I.VII</t>
+  </si>
+  <si>
+    <t>Proposición I.VIII</t>
+  </si>
+  <si>
+    <t>Proposición I.IX</t>
+  </si>
+  <si>
+    <t>Proposición I.X</t>
+  </si>
+  <si>
+    <t>Proposición I.XI</t>
+  </si>
+  <si>
+    <t>Proposición I.XII</t>
+  </si>
+  <si>
+    <t>Proposición I.XIII</t>
+  </si>
+  <si>
+    <t>Proposición I.XIV</t>
+  </si>
+  <si>
+    <t>Proposición I.XV</t>
+  </si>
+  <si>
+    <t>Proposición I.XVI</t>
+  </si>
+  <si>
+    <t>Para cualquier triángulo, cuando un lado se prolonga, el ángulo externo es mayor que cada uno de los ángulos internos opuestos.</t>
   </si>
 </sst>
 </file>
@@ -699,13 +699,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="133.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -719,386 +719,386 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
